--- a/card-form.xlsx
+++ b/card-form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wonsuk/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wonsuk/Documents/streamlit/billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B67D96A-2268-3C49-A1DD-73358F993D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D709EB-7968-4144-AB78-E632CC46761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="3" xr2:uid="{FA864BB5-9A2D-4A02-AD0A-41547B285F48}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{FA864BB5-9A2D-4A02-AD0A-41547B285F48}"/>
   </bookViews>
   <sheets>
     <sheet name="청구서" sheetId="7" r:id="rId1"/>
@@ -371,20 +371,20 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
     <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="##&quot;개&quot;&quot;월&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0_ "/>
-    <numFmt numFmtId="182" formatCode="#,##0&quot;원&quot;\ "/>
-    <numFmt numFmtId="183" formatCode="yyyy&quot;년&quot;\ mm&quot;월&quot;\ dd&quot;일&quot;\ "/>
-    <numFmt numFmtId="184" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
-    <numFmt numFmtId="185" formatCode="000\-00\-00000"/>
-    <numFmt numFmtId="186" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="187" formatCode="000\-000000\-00000"/>
-    <numFmt numFmtId="188" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ &quot;카드상세내역&quot;"/>
-    <numFmt numFmtId="189" formatCode="###,###"/>
-    <numFmt numFmtId="190" formatCode="#.#"/>
-    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="179" formatCode="##&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0&quot;원&quot;\ "/>
+    <numFmt numFmtId="182" formatCode="yyyy&quot;년&quot;\ mm&quot;월&quot;\ dd&quot;일&quot;\ "/>
+    <numFmt numFmtId="183" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="184" formatCode="000\-00\-00000"/>
+    <numFmt numFmtId="185" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="186" formatCode="000\-000000\-00000"/>
+    <numFmt numFmtId="187" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ &quot;카드상세내역&quot;"/>
+    <numFmt numFmtId="188" formatCode="###,###"/>
+    <numFmt numFmtId="189" formatCode="#.#"/>
+    <numFmt numFmtId="190" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,8 +804,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +851,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,7 +1362,7 @@
     <xf numFmtId="176" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1349,7 +1373,7 @@
     <xf numFmtId="14" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1487,28 +1511,28 @@
     <xf numFmtId="176" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="37" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
@@ -1541,12 +1565,12 @@
     <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1576,14 +1600,62 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="189" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="190" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="182" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="182" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1597,10 +1669,10 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="43" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="43" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1614,54 +1686,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="183" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="183" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1678,7 +1702,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1848,137 +1878,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="Group 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15E3E45-DA2B-4D39-ACB0-40ABD28A0682}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks noChangeAspect="1"/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="668383" y="598715"/>
-          <a:ext cx="5337266" cy="916576"/>
-          <a:chOff x="46" y="3"/>
-          <a:chExt cx="673" cy="90"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="AutoShape 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF455940-698D-2E74-3D36-4AFC618E11B5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="46" y="3"/>
-            <a:ext cx="673" cy="90"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46706DCB-397B-E0B8-2C5E-2EEB8EDA2C6C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="46" y="3"/>
-            <a:ext cx="673" cy="90"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="1B489D"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2903,8 +2802,8 @@
   </sheetPr>
   <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:J19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="17"/>
@@ -2918,17 +2817,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="M1" s="156" t="s">
+      <c r="M1" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="156"/>
-      <c r="O1" s="160">
+      <c r="N1" s="139"/>
+      <c r="O1" s="142">
         <v>45313</v>
       </c>
-      <c r="P1" s="160"/>
+      <c r="P1" s="142"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="4" spans="1:21" ht="21" customHeight="1">
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
       <c r="L4" s="31" t="s">
         <v>62</v>
       </c>
@@ -2941,6 +2847,13 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:21" ht="21" customHeight="1">
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
       <c r="L5" s="31" t="s">
         <v>43</v>
       </c>
@@ -2953,6 +2866,13 @@
       <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:21" ht="21" customHeight="1">
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
       <c r="L6" s="31" t="s">
         <v>44</v>
       </c>
@@ -2993,40 +2913,40 @@
     <row r="10" spans="1:21" ht="18.5" customHeight="1">
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="145">
+      <c r="D10" s="144">
         <f>N25</f>
         <v>0</v>
       </c>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="146"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
       <c r="J10" s="41"/>
-      <c r="L10" s="147">
+      <c r="L10" s="146">
         <f>EOMONTH((O1+30),0)</f>
         <v>45351</v>
       </c>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="148"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="147"/>
     </row>
     <row r="11" spans="1:21" ht="25.25" customHeight="1">
       <c r="B11" s="43"/>
       <c r="C11" s="44"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
       <c r="I11" s="44"/>
       <c r="J11" s="45"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="148"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="147"/>
       <c r="Q11" s="46"/>
       <c r="R11" s="46"/>
     </row>
@@ -3076,21 +2996,21 @@
       <c r="E14" s="128"/>
       <c r="F14" s="128"/>
       <c r="G14" s="128"/>
-      <c r="H14" s="151" t="s">
+      <c r="H14" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151" t="s">
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="152" t="s">
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="58"/>
       <c r="S14" s="58"/>
@@ -3107,24 +3027,24 @@
       <c r="E15" s="110"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
-      <c r="H15" s="149">
+      <c r="H15" s="136">
         <f>ROUND(DSUM(이용료!D5:I1048576,6,이용료!O2:O3),0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149">
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136">
         <f>ROUND(H15*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149">
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136">
         <f>ROUND(SUM(H15:M15),0)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
       <c r="Q15" s="44"/>
       <c r="R15" s="58"/>
       <c r="S15" s="58"/>
@@ -3140,24 +3060,24 @@
       <c r="E16" s="112"/>
       <c r="F16" s="112"/>
       <c r="G16" s="112"/>
-      <c r="H16" s="155">
+      <c r="H16" s="135">
         <f>ROUND(DSUM(이용료!D5:I1048576,6,이용료!P2:P3),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155">
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135">
         <f t="shared" ref="K16:K17" si="0">ROUND(H16*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="155">
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135">
         <f>ROUND(SUM(H16:M16),0)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="155"/>
-      <c r="P16" s="155"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="58"/>
       <c r="S16" s="58"/>
@@ -3173,24 +3093,24 @@
       <c r="E17" s="114"/>
       <c r="F17" s="114"/>
       <c r="G17" s="114"/>
-      <c r="H17" s="154">
+      <c r="H17" s="141">
         <f>ROUND(SUM(이용료!L5:L1048576),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="158">
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="140">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="154">
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="141">
         <f>ROUND(SUM(H17:M17),0)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="58"/>
       <c r="S17" s="58"/>
@@ -3206,15 +3126,15 @@
       <c r="E18" s="128"/>
       <c r="F18" s="128"/>
       <c r="G18" s="128"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="150"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="58"/>
       <c r="S18" s="58"/>
@@ -3230,24 +3150,24 @@
       <c r="E19" s="110"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110"/>
-      <c r="H19" s="149">
+      <c r="H19" s="136">
         <f>ROUND(DSUM(카드상세내역!G4:J1048576,4,카드상세내역!V4:V5),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149">
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136">
         <f>ROUND(DSUM(카드상세내역!G4:K1048576,5,카드상세내역!V4:V5),0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="149"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="149">
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136">
         <f>ROUND(DSUM(카드상세내역!G4:I1048576,3,카드상세내역!V4:V5),0)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="58"/>
       <c r="S19" s="58"/>
@@ -3263,24 +3183,24 @@
       <c r="E20" s="112"/>
       <c r="F20" s="112"/>
       <c r="G20" s="112"/>
-      <c r="H20" s="155">
+      <c r="H20" s="135">
         <f>ROUND(DSUM(카드상세내역!G4:J1048576,4,카드상세내역!W4:W5)-H21,0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155">
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135">
         <f>ROUND(DSUM(카드상세내역!G4:K1048576,5,카드상세내역!W4:W5),0)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155">
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135">
         <f>ROUND(DSUM(카드상세내역!G4:I1048576,3,카드상세내역!W4:W5)-N21,0)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="58"/>
       <c r="S20" s="58"/>
@@ -3296,21 +3216,21 @@
       <c r="E21" s="112"/>
       <c r="F21" s="112"/>
       <c r="G21" s="112"/>
-      <c r="H21" s="155">
+      <c r="H21" s="135">
         <f>ROUND(SUMIF(카드상세내역!K:K,"=0",카드상세내역!J:J),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155">
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135">
         <f>ROUND(SUMIF(카드상세내역!K:K,"=0",카드상세내역!I:I),0)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="58"/>
       <c r="S21" s="58"/>
@@ -3326,24 +3246,24 @@
       <c r="E22" s="112"/>
       <c r="F22" s="112"/>
       <c r="G22" s="112"/>
-      <c r="H22" s="155">
+      <c r="H22" s="135">
         <f>ROUND(DSUM(카드상세내역!G4:J1048576,4,카드상세내역!X4:X5),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155">
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135">
         <f>ROUND(DSUM(카드상세내역!G4:K1048576,5,카드상세내역!X4:X5),0)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155">
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135">
         <f>ROUND(DSUM(카드상세내역!G4:I1048576,3,카드상세내역!X4:X5),0)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="58"/>
       <c r="S22" s="58"/>
@@ -3359,24 +3279,24 @@
       <c r="E23" s="112"/>
       <c r="F23" s="112"/>
       <c r="G23" s="112"/>
-      <c r="H23" s="155">
+      <c r="H23" s="135">
         <f>ROUND(DSUM(카드상세내역!G4:J1048576,4,카드상세내역!Y4:Y5),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155">
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135">
         <f>ROUND(DSUM(카드상세내역!G4:K1048576,5,카드상세내역!Y4:Y5),0)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155">
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135">
         <f>ROUND(DSUM(카드상세내역!G4:I1048576,3,카드상세내역!Y4:Y5),0)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="135"/>
       <c r="Q23" s="61"/>
       <c r="R23" s="62"/>
       <c r="S23" s="58"/>
@@ -3393,24 +3313,24 @@
       <c r="E24" s="117"/>
       <c r="F24" s="117"/>
       <c r="G24" s="117"/>
-      <c r="H24" s="155">
+      <c r="H24" s="135">
         <f>ROUND(N24/1.1,0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="159">
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="138">
         <f>N24-H24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159">
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138">
         <f>ROUND((SUM(N19:P23)*0.01),0)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="159"/>
-      <c r="P24" s="159"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="58"/>
       <c r="S24" s="58"/>
@@ -3426,24 +3346,24 @@
       <c r="E25" s="130"/>
       <c r="F25" s="130"/>
       <c r="G25" s="130"/>
-      <c r="H25" s="157">
+      <c r="H25" s="137">
         <f>SUM(H15:H24)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157">
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137">
         <f>SUM(K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157">
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137">
         <f>SUM(N15:N24)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="157"/>
-      <c r="P25" s="157"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="58"/>
       <c r="S25" s="58"/>
@@ -3487,50 +3407,50 @@
       <c r="P27" s="59"/>
     </row>
     <row r="28" spans="2:22" ht="35" customHeight="1" thickBot="1">
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137" t="s">
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137" t="s">
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="138"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="154"/>
     </row>
     <row r="29" spans="2:22" ht="35" customHeight="1">
-      <c r="B29" s="142" t="s">
+      <c r="B29" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141" t="s">
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="139">
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="155">
         <v>54999817511137</v>
       </c>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="140"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="156"/>
     </row>
     <row r="30" spans="2:22" ht="25.25" customHeight="1">
       <c r="C30" s="44"/>
@@ -3739,42 +3659,42 @@
     <row r="44" spans="2:21" ht="24" customHeight="1"/>
     <row r="45" spans="2:21" ht="24" customHeight="1"/>
     <row r="46" spans="2:21" ht="25.25" customHeight="1">
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="143"/>
-      <c r="L46" s="143"/>
-      <c r="M46" s="143"/>
-      <c r="N46" s="143"/>
-      <c r="O46" s="143"/>
-      <c r="P46" s="143"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="159"/>
+      <c r="K46" s="159"/>
+      <c r="L46" s="159"/>
+      <c r="M46" s="159"/>
+      <c r="N46" s="159"/>
+      <c r="O46" s="159"/>
+      <c r="P46" s="159"/>
     </row>
     <row r="47" spans="2:21" s="78" customFormat="1" ht="25.25" customHeight="1">
-      <c r="B47" s="144" t="s">
+      <c r="B47" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
+      <c r="K47" s="160"/>
+      <c r="L47" s="160"/>
+      <c r="M47" s="160"/>
+      <c r="N47" s="160"/>
+      <c r="O47" s="160"/>
+      <c r="P47" s="160"/>
       <c r="Q47" s="76"/>
       <c r="R47" s="77"/>
       <c r="S47" s="77"/>
@@ -3886,20 +3806,20 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="26.25" customHeight="1">
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
-      <c r="J58" s="135"/>
-      <c r="K58" s="135"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="135"/>
-      <c r="O58" s="135"/>
-      <c r="P58" s="135"/>
+      <c r="C58" s="151"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="151"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="151"/>
+      <c r="K58" s="151"/>
+      <c r="L58" s="151"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="151"/>
+      <c r="O58" s="151"/>
+      <c r="P58" s="151"/>
     </row>
     <row r="59" spans="3:20" ht="15" customHeight="1">
       <c r="C59" s="89"/>
@@ -3928,20 +3848,20 @@
       <c r="M60" s="90"/>
     </row>
     <row r="61" spans="3:20" ht="24.75" customHeight="1">
-      <c r="C61" s="135"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
-      <c r="J61" s="135"/>
-      <c r="K61" s="135"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
-      <c r="N61" s="135"/>
-      <c r="O61" s="135"/>
-      <c r="P61" s="135"/>
+      <c r="C61" s="151"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="151"/>
+      <c r="F61" s="151"/>
+      <c r="G61" s="151"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="151"/>
+      <c r="J61" s="151"/>
+      <c r="K61" s="151"/>
+      <c r="L61" s="151"/>
+      <c r="M61" s="151"/>
+      <c r="N61" s="151"/>
+      <c r="O61" s="151"/>
+      <c r="P61" s="151"/>
     </row>
     <row r="62" spans="3:20" ht="15" customHeight="1">
       <c r="C62" s="89"/>
@@ -4044,19 +3964,31 @@
       <c r="C72" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H21:J21"/>
+  <mergeCells count="52">
+    <mergeCell ref="B4:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C58:P58"/>
+    <mergeCell ref="C61:P61"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B46:P46"/>
+    <mergeCell ref="B47:P47"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K18:M18"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K23:M23"/>
     <mergeCell ref="K22:M22"/>
@@ -4073,28 +4005,18 @@
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="K14:M14"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="C58:P58"/>
-    <mergeCell ref="C61:P61"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B46:P46"/>
-    <mergeCell ref="B47:P47"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4410,7 +4332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6FC9D4-2D76-43F8-8EAB-ED68229A0DD0}">
   <dimension ref="B2:Y932"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/card-form.xlsx
+++ b/card-form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wonsuk/Documents/streamlit/billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D709EB-7968-4144-AB78-E632CC46761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EDC92A-9633-574D-A2D1-92E4538D53BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{FA864BB5-9A2D-4A02-AD0A-41547B285F48}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{FA864BB5-9A2D-4A02-AD0A-41547B285F48}"/>
   </bookViews>
   <sheets>
     <sheet name="청구서" sheetId="7" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>총납부금액</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -361,6 +361,10 @@
   </si>
   <si>
     <t>에스케이마이크로웍스 주식회사</t>
+  </si>
+  <si>
+    <t>카셰어링베이직</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1609,53 +1613,11 @@
     <xf numFmtId="190" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1687,6 +1649,54 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="182" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="182" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1703,12 +1713,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="187" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2802,8 +2806,8 @@
   </sheetPr>
   <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:H11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="17"/>
@@ -2817,24 +2821,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="M1" s="139" t="s">
+      <c r="M1" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="139"/>
-      <c r="O1" s="142">
+      <c r="N1" s="158"/>
+      <c r="O1" s="162">
         <v>45313</v>
       </c>
-      <c r="P1" s="142"/>
+      <c r="P1" s="162"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="4" spans="1:21" ht="21" customHeight="1">
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
       <c r="L4" s="31" t="s">
         <v>62</v>
       </c>
@@ -2847,13 +2851,13 @@
       <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:21" ht="21" customHeight="1">
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
       <c r="L5" s="31" t="s">
         <v>43</v>
       </c>
@@ -2866,13 +2870,13 @@
       <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:21" ht="21" customHeight="1">
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
       <c r="L6" s="31" t="s">
         <v>44</v>
       </c>
@@ -2913,40 +2917,40 @@
     <row r="10" spans="1:21" ht="18.5" customHeight="1">
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="144">
+      <c r="D10" s="147">
         <f>N25</f>
         <v>0</v>
       </c>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="148"/>
       <c r="J10" s="41"/>
-      <c r="L10" s="146">
+      <c r="L10" s="149">
         <f>EOMONTH((O1+30),0)</f>
         <v>45351</v>
       </c>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="147"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:21" ht="25.25" customHeight="1">
       <c r="B11" s="43"/>
       <c r="C11" s="44"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="145"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
       <c r="I11" s="44"/>
       <c r="J11" s="45"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="147"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="150"/>
       <c r="Q11" s="46"/>
       <c r="R11" s="46"/>
     </row>
@@ -2996,21 +3000,21 @@
       <c r="E14" s="128"/>
       <c r="F14" s="128"/>
       <c r="G14" s="128"/>
-      <c r="H14" s="143" t="s">
+      <c r="H14" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143" t="s">
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="149" t="s">
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="58"/>
       <c r="S14" s="58"/>
@@ -3027,24 +3031,24 @@
       <c r="E15" s="110"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
-      <c r="H15" s="136">
+      <c r="H15" s="151">
         <f>ROUND(DSUM(이용료!D5:I1048576,6,이용료!O2:O3),0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136">
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151">
         <f>ROUND(H15*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136">
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151">
         <f>ROUND(SUM(H15:M15),0)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
       <c r="Q15" s="44"/>
       <c r="R15" s="58"/>
       <c r="S15" s="58"/>
@@ -3060,24 +3064,24 @@
       <c r="E16" s="112"/>
       <c r="F16" s="112"/>
       <c r="G16" s="112"/>
-      <c r="H16" s="135">
-        <f>ROUND(DSUM(이용료!D5:I1048576,6,이용료!P2:P3),0)</f>
+      <c r="H16" s="157">
+        <f>ROUND(DSUM(이용료!$D$5:$I$1048576,6,이용료!$P$2:$P$3),0)+ ROUND(DSUM(이용료!$D$5:$I$1048576,6,이용료!$Q$2:$Q$3),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135">
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157">
         <f t="shared" ref="K16:K17" si="0">ROUND(H16*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135">
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="157">
         <f>ROUND(SUM(H16:M16),0)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="58"/>
       <c r="S16" s="58"/>
@@ -3093,24 +3097,24 @@
       <c r="E17" s="114"/>
       <c r="F17" s="114"/>
       <c r="G17" s="114"/>
-      <c r="H17" s="141">
+      <c r="H17" s="156">
         <f>ROUND(SUM(이용료!L5:L1048576),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="140">
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="141">
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="156">
         <f>ROUND(SUM(H17:M17),0)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="58"/>
       <c r="S17" s="58"/>
@@ -3126,15 +3130,15 @@
       <c r="E18" s="128"/>
       <c r="F18" s="128"/>
       <c r="G18" s="128"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="150"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="58"/>
       <c r="S18" s="58"/>
@@ -3150,24 +3154,24 @@
       <c r="E19" s="110"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110"/>
-      <c r="H19" s="136">
+      <c r="H19" s="151">
         <f>ROUND(DSUM(카드상세내역!G4:J1048576,4,카드상세내역!V4:V5),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136">
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151">
         <f>ROUND(DSUM(카드상세내역!G4:K1048576,5,카드상세내역!V4:V5),0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136">
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151">
         <f>ROUND(DSUM(카드상세내역!G4:I1048576,3,카드상세내역!V4:V5),0)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="58"/>
       <c r="S19" s="58"/>
@@ -3183,24 +3187,24 @@
       <c r="E20" s="112"/>
       <c r="F20" s="112"/>
       <c r="G20" s="112"/>
-      <c r="H20" s="135">
+      <c r="H20" s="157">
         <f>ROUND(DSUM(카드상세내역!G4:J1048576,4,카드상세내역!W4:W5)-H21,0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135">
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157">
         <f>ROUND(DSUM(카드상세내역!G4:K1048576,5,카드상세내역!W4:W5),0)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135">
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157">
         <f>ROUND(DSUM(카드상세내역!G4:I1048576,3,카드상세내역!W4:W5)-N21,0)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="58"/>
       <c r="S20" s="58"/>
@@ -3216,21 +3220,21 @@
       <c r="E21" s="112"/>
       <c r="F21" s="112"/>
       <c r="G21" s="112"/>
-      <c r="H21" s="135">
+      <c r="H21" s="157">
         <f>ROUND(SUMIF(카드상세내역!K:K,"=0",카드상세내역!J:J),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135">
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157">
         <f>ROUND(SUMIF(카드상세내역!K:K,"=0",카드상세내역!I:I),0)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="58"/>
       <c r="S21" s="58"/>
@@ -3246,24 +3250,24 @@
       <c r="E22" s="112"/>
       <c r="F22" s="112"/>
       <c r="G22" s="112"/>
-      <c r="H22" s="135">
+      <c r="H22" s="157">
         <f>ROUND(DSUM(카드상세내역!G4:J1048576,4,카드상세내역!X4:X5),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135">
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157">
         <f>ROUND(DSUM(카드상세내역!G4:K1048576,5,카드상세내역!X4:X5),0)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135">
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157">
         <f>ROUND(DSUM(카드상세내역!G4:I1048576,3,카드상세내역!X4:X5),0)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="58"/>
       <c r="S22" s="58"/>
@@ -3279,24 +3283,24 @@
       <c r="E23" s="112"/>
       <c r="F23" s="112"/>
       <c r="G23" s="112"/>
-      <c r="H23" s="135">
+      <c r="H23" s="157">
         <f>ROUND(DSUM(카드상세내역!G4:J1048576,4,카드상세내역!Y4:Y5),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135">
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157">
         <f>ROUND(DSUM(카드상세내역!G4:K1048576,5,카드상세내역!Y4:Y5),0)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135">
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157">
         <f>ROUND(DSUM(카드상세내역!G4:I1048576,3,카드상세내역!Y4:Y5),0)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="135"/>
-      <c r="P23" s="135"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
       <c r="Q23" s="61"/>
       <c r="R23" s="62"/>
       <c r="S23" s="58"/>
@@ -3313,24 +3317,24 @@
       <c r="E24" s="117"/>
       <c r="F24" s="117"/>
       <c r="G24" s="117"/>
-      <c r="H24" s="135">
+      <c r="H24" s="157">
         <f>ROUND(N24/1.1,0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="138">
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="161">
         <f>N24-H24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138">
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161">
         <f>ROUND((SUM(N19:P23)*0.01),0)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="58"/>
       <c r="S24" s="58"/>
@@ -3346,24 +3350,24 @@
       <c r="E25" s="130"/>
       <c r="F25" s="130"/>
       <c r="G25" s="130"/>
-      <c r="H25" s="137">
+      <c r="H25" s="159">
         <f>SUM(H15:H24)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137">
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159">
         <f>SUM(K15:K24)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137">
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159">
         <f>SUM(N15:N24)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="137"/>
-      <c r="P25" s="137"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="159"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="58"/>
       <c r="S25" s="58"/>
@@ -3407,50 +3411,50 @@
       <c r="P27" s="59"/>
     </row>
     <row r="28" spans="2:22" ht="35" customHeight="1" thickBot="1">
-      <c r="B28" s="152" t="s">
+      <c r="B28" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153" t="s">
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153" t="s">
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="154"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="140"/>
     </row>
     <row r="29" spans="2:22" ht="35" customHeight="1">
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157" t="s">
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="155">
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="141">
         <v>54999817511137</v>
       </c>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="156"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
     </row>
     <row r="30" spans="2:22" ht="25.25" customHeight="1">
       <c r="C30" s="44"/>
@@ -3659,42 +3663,42 @@
     <row r="44" spans="2:21" ht="24" customHeight="1"/>
     <row r="45" spans="2:21" ht="24" customHeight="1"/>
     <row r="46" spans="2:21" ht="25.25" customHeight="1">
-      <c r="B46" s="159" t="s">
+      <c r="B46" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="159"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="159"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="159"/>
-      <c r="I46" s="159"/>
-      <c r="J46" s="159"/>
-      <c r="K46" s="159"/>
-      <c r="L46" s="159"/>
-      <c r="M46" s="159"/>
-      <c r="N46" s="159"/>
-      <c r="O46" s="159"/>
-      <c r="P46" s="159"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="145"/>
+      <c r="N46" s="145"/>
+      <c r="O46" s="145"/>
+      <c r="P46" s="145"/>
     </row>
     <row r="47" spans="2:21" s="78" customFormat="1" ht="25.25" customHeight="1">
-      <c r="B47" s="160" t="s">
+      <c r="B47" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="160"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="160"/>
-      <c r="F47" s="160"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="160"/>
-      <c r="J47" s="160"/>
-      <c r="K47" s="160"/>
-      <c r="L47" s="160"/>
-      <c r="M47" s="160"/>
-      <c r="N47" s="160"/>
-      <c r="O47" s="160"/>
-      <c r="P47" s="160"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="146"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="146"/>
+      <c r="N47" s="146"/>
+      <c r="O47" s="146"/>
+      <c r="P47" s="146"/>
       <c r="Q47" s="76"/>
       <c r="R47" s="77"/>
       <c r="S47" s="77"/>
@@ -3806,20 +3810,20 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="26.25" customHeight="1">
-      <c r="C58" s="151"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="151"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="151"/>
-      <c r="K58" s="151"/>
-      <c r="L58" s="151"/>
-      <c r="M58" s="151"/>
-      <c r="N58" s="151"/>
-      <c r="O58" s="151"/>
-      <c r="P58" s="151"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="137"/>
+      <c r="N58" s="137"/>
+      <c r="O58" s="137"/>
+      <c r="P58" s="137"/>
     </row>
     <row r="59" spans="3:20" ht="15" customHeight="1">
       <c r="C59" s="89"/>
@@ -3848,20 +3852,20 @@
       <c r="M60" s="90"/>
     </row>
     <row r="61" spans="3:20" ht="24.75" customHeight="1">
-      <c r="C61" s="151"/>
-      <c r="D61" s="151"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="151"/>
-      <c r="G61" s="151"/>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
-      <c r="J61" s="151"/>
-      <c r="K61" s="151"/>
-      <c r="L61" s="151"/>
-      <c r="M61" s="151"/>
-      <c r="N61" s="151"/>
-      <c r="O61" s="151"/>
-      <c r="P61" s="151"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="137"/>
+      <c r="O61" s="137"/>
+      <c r="P61" s="137"/>
     </row>
     <row r="62" spans="3:20" ht="15" customHeight="1">
       <c r="C62" s="89"/>
@@ -3965,6 +3969,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K18:M18"/>
     <mergeCell ref="B4:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="C58:P58"/>
@@ -3981,42 +4021,6 @@
     <mergeCell ref="L10:P11"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H21:J21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4044,13 +4048,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="23">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
       <c r="G4" s="11"/>
     </row>
     <row r="6" spans="2:7">
@@ -4063,10 +4067,10 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="163"/>
+      <c r="C8" s="165"/>
       <c r="D8" s="4" t="s">
         <v>2</v>
       </c>
@@ -4078,10 +4082,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="165"/>
+      <c r="C9" s="167"/>
       <c r="D9" s="5">
         <f>DSUM(이용료!D5:I1048576,6,이용료!$O$2:$O$3)</f>
         <v>0</v>
@@ -4096,10 +4100,10 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="165"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="5">
         <f>DSUM(이용료!D5:I1048576,6,이용료!$P$2:$P$3)</f>
         <v>0</v>
@@ -4114,10 +4118,10 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="165"/>
+      <c r="C11" s="167"/>
       <c r="D11" s="5" t="e">
         <f>ROUND((F11/1.1),0)</f>
         <v>#REF!</v>
@@ -4132,10 +4136,10 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="165"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="5" t="e">
         <f>ROUND((F12/1.1),0)</f>
         <v>#REF!</v>
@@ -4166,12 +4170,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC8C33E-91E8-44DD-9395-C04E706CC52D}">
-  <dimension ref="B1:P5"/>
+  <dimension ref="B1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W41" sqref="W41"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -4188,10 +4192,11 @@
     <col min="14" max="14" width="9" style="94"/>
     <col min="15" max="15" width="9" style="94" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="8.6640625" style="94" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="94"/>
+    <col min="17" max="17" width="0" style="94" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="1" customFormat="1">
+    <row r="1" spans="2:17" s="1" customFormat="1">
       <c r="F1" s="22"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -4203,7 +4208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="1" customFormat="1" ht="20">
+    <row r="2" spans="2:17" s="1" customFormat="1" ht="20">
       <c r="B2" s="12">
         <f>청구서!O1-30</f>
         <v>45283</v>
@@ -4227,8 +4232,11 @@
       <c r="P2" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" s="1" customFormat="1">
+      <c r="Q2" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="1" customFormat="1">
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
       <c r="D3" s="6"/>
@@ -4246,8 +4254,11 @@
       <c r="P3" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" s="1" customFormat="1">
+      <c r="Q3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" s="1" customFormat="1">
       <c r="B4" s="101">
         <v>2288503316</v>
       </c>
@@ -4266,7 +4277,7 @@
       <c r="O4" s="99"/>
       <c r="P4" s="99"/>
     </row>
-    <row r="5" spans="2:16" s="1" customFormat="1">
+    <row r="5" spans="2:17" s="1" customFormat="1">
       <c r="B5" s="25" t="s">
         <v>8</v>
       </c>
@@ -4350,11 +4361,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="18">
-      <c r="B2" s="166">
+      <c r="B2" s="168">
         <f>이용료!B2</f>
         <v>45283</v>
       </c>
-      <c r="C2" s="166"/>
+      <c r="C2" s="168"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:25">
